--- a/NEW HR/LANDICHO, ROSALINA BAYBAY.xlsx
+++ b/NEW HR/LANDICHO, ROSALINA BAYBAY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="117">
   <si>
     <t>PERIOD</t>
   </si>
@@ -343,6 +343,48 @@
   </si>
   <si>
     <t>2/11,13/2023</t>
+  </si>
+  <si>
+    <t>4/16,25/2022</t>
+  </si>
+  <si>
+    <t>UT(3-6-5)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>5/9-11/2022</t>
+  </si>
+  <si>
+    <t>HD(3-4-0)</t>
+  </si>
+  <si>
+    <t>5/13,16,23,25,27,28,31/2022</t>
+  </si>
+  <si>
+    <t>HD(1-4-0)</t>
+  </si>
+  <si>
+    <t>6/10,24,27/2022</t>
+  </si>
+  <si>
+    <t>A(5-0-0)</t>
+  </si>
+  <si>
+    <t>7/1,3-6/2022</t>
+  </si>
+  <si>
+    <t>HD(3-0-0)</t>
+  </si>
+  <si>
+    <t>7/12,15,19,22,25,29/2022</t>
+  </si>
+  <si>
+    <t>8/24,29/2022</t>
+  </si>
+  <si>
+    <t>2/25,27/2023</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1094,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K145" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1381,12 +1423,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K145"/>
+  <dimension ref="A2:K144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A77" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A89" activePane="bottomLeft"/>
       <selection activeCell="D22" sqref="D22"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
+      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,7 +1597,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>60.918000000000006</v>
+        <v>58.918000000000006</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3345,15 +3387,13 @@
       <c r="B93" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C93" s="14">
-        <v>1.25</v>
-      </c>
+      <c r="C93" s="14"/>
       <c r="D93" s="40"/>
       <c r="E93" s="9"/>
       <c r="F93" s="21"/>
-      <c r="G93" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G93" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H93" s="40">
         <v>2</v>
@@ -3366,11 +3406,15 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
-      <c r="B94" s="21"/>
+      <c r="B94" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="C94" s="14"/>
       <c r="D94" s="40"/>
       <c r="E94" s="9"/>
-      <c r="F94" s="21"/>
+      <c r="F94" s="21">
+        <v>2</v>
+      </c>
       <c r="G94" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3378,15 +3422,21 @@
       <c r="H94" s="40"/>
       <c r="I94" s="9"/>
       <c r="J94" s="12"/>
-      <c r="K94" s="21"/>
+      <c r="K94" s="21" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
-      <c r="B95" s="21"/>
+      <c r="B95" s="21" t="s">
+        <v>104</v>
+      </c>
       <c r="C95" s="14"/>
       <c r="D95" s="40"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="21"/>
+      <c r="F95" s="12">
+        <v>3.754</v>
+      </c>
       <c r="G95" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3398,11 +3448,15 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
-      <c r="B96" s="21"/>
+      <c r="B96" s="21" t="s">
+        <v>105</v>
+      </c>
       <c r="C96" s="14"/>
       <c r="D96" s="40"/>
       <c r="E96" s="9"/>
-      <c r="F96" s="21"/>
+      <c r="F96" s="21">
+        <v>3</v>
+      </c>
       <c r="G96" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3410,15 +3464,21 @@
       <c r="H96" s="40"/>
       <c r="I96" s="9"/>
       <c r="J96" s="12"/>
-      <c r="K96" s="21"/>
+      <c r="K96" s="21" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
-      <c r="B97" s="21"/>
+      <c r="B97" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="C97" s="14"/>
       <c r="D97" s="40"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="21"/>
+      <c r="F97" s="21">
+        <v>3.5</v>
+      </c>
       <c r="G97" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3426,15 +3486,21 @@
       <c r="H97" s="40"/>
       <c r="I97" s="9"/>
       <c r="J97" s="12"/>
-      <c r="K97" s="21"/>
+      <c r="K97" s="21" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
-      <c r="B98" s="21"/>
+      <c r="B98" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="C98" s="14"/>
       <c r="D98" s="40"/>
       <c r="E98" s="9"/>
-      <c r="F98" s="21"/>
+      <c r="F98" s="47">
+        <v>2.0209999999999999</v>
+      </c>
       <c r="G98" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3446,11 +3512,15 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
-      <c r="B99" s="21"/>
+      <c r="B99" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="C99" s="14"/>
       <c r="D99" s="40"/>
       <c r="E99" s="9"/>
-      <c r="F99" s="21"/>
+      <c r="F99" s="21">
+        <v>1</v>
+      </c>
       <c r="G99" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3458,15 +3528,21 @@
       <c r="H99" s="40"/>
       <c r="I99" s="9"/>
       <c r="J99" s="12"/>
-      <c r="K99" s="21"/>
+      <c r="K99" s="50">
+        <v>44740</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
-      <c r="B100" s="21"/>
+      <c r="B100" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="C100" s="14"/>
       <c r="D100" s="40"/>
       <c r="E100" s="9"/>
-      <c r="F100" s="21"/>
+      <c r="F100" s="21">
+        <v>1.5</v>
+      </c>
       <c r="G100" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3474,15 +3550,21 @@
       <c r="H100" s="40"/>
       <c r="I100" s="9"/>
       <c r="J100" s="12"/>
-      <c r="K100" s="21"/>
+      <c r="K100" s="21" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41"/>
-      <c r="B101" s="21"/>
+      <c r="B101" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="C101" s="14"/>
       <c r="D101" s="40"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="21"/>
+      <c r="F101" s="47">
+        <v>2.883</v>
+      </c>
       <c r="G101" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3494,11 +3576,15 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
-      <c r="B102" s="21"/>
+      <c r="B102" s="21" t="s">
+        <v>111</v>
+      </c>
       <c r="C102" s="14"/>
       <c r="D102" s="40"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="21"/>
+      <c r="F102" s="21">
+        <v>5</v>
+      </c>
       <c r="G102" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3506,15 +3592,21 @@
       <c r="H102" s="40"/>
       <c r="I102" s="9"/>
       <c r="J102" s="12"/>
-      <c r="K102" s="21"/>
+      <c r="K102" s="21" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
-      <c r="B103" s="21"/>
+      <c r="B103" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="C103" s="14"/>
       <c r="D103" s="40"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="21"/>
+      <c r="F103" s="21">
+        <v>3</v>
+      </c>
       <c r="G103" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3522,15 +3614,21 @@
       <c r="H103" s="40"/>
       <c r="I103" s="9"/>
       <c r="J103" s="12"/>
-      <c r="K103" s="21"/>
+      <c r="K103" s="21" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41"/>
-      <c r="B104" s="21"/>
+      <c r="B104" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="C104" s="14"/>
       <c r="D104" s="40"/>
       <c r="E104" s="9"/>
-      <c r="F104" s="21"/>
+      <c r="F104" s="47">
+        <v>1.173</v>
+      </c>
       <c r="G104" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3542,11 +3640,15 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
-      <c r="B105" s="21"/>
+      <c r="B105" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="C105" s="14"/>
       <c r="D105" s="40"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="21"/>
+      <c r="F105" s="21">
+        <v>2</v>
+      </c>
       <c r="G105" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3554,23 +3656,35 @@
       <c r="H105" s="40"/>
       <c r="I105" s="9"/>
       <c r="J105" s="12"/>
-      <c r="K105" s="21"/>
+      <c r="K105" s="21" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="41"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="14"/>
+      <c r="A106" s="41">
+        <v>44986</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D106" s="40"/>
       <c r="E106" s="9"/>
       <c r="F106" s="21"/>
-      <c r="G106" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H106" s="40"/>
+      <c r="G106" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H106" s="40">
+        <v>2</v>
+      </c>
       <c r="I106" s="9"/>
       <c r="J106" s="12"/>
-      <c r="K106" s="21"/>
+      <c r="K106" s="21" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="41"/>
@@ -4165,36 +4279,20 @@
       <c r="K143" s="21"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="41"/>
-      <c r="B144" s="21"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="40"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="21"/>
-      <c r="G144" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H144" s="40"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="21"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="42"/>
-      <c r="B145" s="16"/>
-      <c r="C145" s="43"/>
-      <c r="D145" s="44"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="16"/>
-      <c r="G145" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H145" s="44"/>
-      <c r="I145" s="10"/>
-      <c r="J145" s="13"/>
-      <c r="K145" s="16"/>
+      <c r="A144" s="42"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="43"/>
+      <c r="D144" s="44"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="44"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4241,7 +4339,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4721,7 +4819,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/NEW HR/LANDICHO, ROSALINA BAYBAY.xlsx
+++ b/NEW HR/LANDICHO, ROSALINA BAYBAY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA35326-13CF-405E-8A68-4E1CD92FF6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -390,7 +391,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1094,25 +1095,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1419,34 +1420,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A89" activePane="bottomLeft"/>
-      <selection activeCell="D22" sqref="D22"/>
-      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
+      <pane ySplit="3696" topLeftCell="A98" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1467,7 +1468,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1485,7 +1486,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1505,7 +1506,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1513,7 +1514,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1526,7 +1527,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="55" t="s">
@@ -1543,7 +1544,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1587,7 +1588,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>1.2600000000000113</v>
+        <v>0.63500000000001133</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1597,12 +1598,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>58.918000000000006</v>
+        <v>58.293000000000006</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>35</v>
       </c>
@@ -1624,7 +1625,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1644,7 +1645,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -1664,7 +1665,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43160</v>
       </c>
@@ -1684,7 +1685,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43191</v>
       </c>
@@ -1704,7 +1705,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43221</v>
       </c>
@@ -1724,7 +1725,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -1744,7 +1745,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -1764,7 +1765,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43313</v>
       </c>
@@ -1784,7 +1785,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>43344</v>
       </c>
@@ -1804,7 +1805,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>43374</v>
       </c>
@@ -1824,7 +1825,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43405</v>
       </c>
@@ -1844,7 +1845,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>43435</v>
       </c>
@@ -1868,7 +1869,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>36</v>
       </c>
@@ -1886,7 +1887,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>43466</v>
       </c>
@@ -1910,7 +1911,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>43497</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>43525</v>
       </c>
@@ -1960,7 +1961,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>43556</v>
       </c>
@@ -1984,7 +1985,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>43586</v>
       </c>
@@ -2008,7 +2009,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>43617</v>
       </c>
@@ -2032,7 +2033,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>43647</v>
       </c>
@@ -2056,7 +2057,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>43678</v>
       </c>
@@ -2080,7 +2081,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>43709</v>
       </c>
@@ -2104,7 +2105,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>43739</v>
       </c>
@@ -2128,7 +2129,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>43770</v>
       </c>
@@ -2152,7 +2153,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>43800</v>
       </c>
@@ -2176,7 +2177,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
         <v>64</v>
@@ -2196,7 +2197,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="39" t="s">
         <v>37</v>
       </c>
@@ -2214,7 +2215,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>43831</v>
       </c>
@@ -2238,7 +2239,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>43862</v>
       </c>
@@ -2262,7 +2263,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>43891</v>
       </c>
@@ -2282,7 +2283,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>43922</v>
       </c>
@@ -2302,7 +2303,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>43952</v>
       </c>
@@ -2322,7 +2323,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>43983</v>
       </c>
@@ -2346,7 +2347,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44013</v>
       </c>
@@ -2370,7 +2371,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>44044</v>
       </c>
@@ -2394,7 +2395,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>44075</v>
       </c>
@@ -2414,7 +2415,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>44105</v>
       </c>
@@ -2434,7 +2435,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>44136</v>
       </c>
@@ -2454,7 +2455,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <v>44166</v>
       </c>
@@ -2478,7 +2479,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="39" t="s">
         <v>38</v>
       </c>
@@ -2496,7 +2497,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>44197</v>
       </c>
@@ -2516,7 +2517,7 @@
       <c r="J51" s="13"/>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>44228</v>
       </c>
@@ -2536,7 +2537,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>44256</v>
       </c>
@@ -2556,7 +2557,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>44287</v>
       </c>
@@ -2576,7 +2577,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>44317</v>
       </c>
@@ -2596,7 +2597,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>44348</v>
       </c>
@@ -2616,7 +2617,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>44378</v>
       </c>
@@ -2636,7 +2637,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>44409</v>
       </c>
@@ -2656,7 +2657,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>44440</v>
       </c>
@@ -2676,7 +2677,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>44470</v>
       </c>
@@ -2696,7 +2697,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>44501</v>
       </c>
@@ -2716,7 +2717,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <v>44531</v>
       </c>
@@ -2740,7 +2741,7 @@
       <c r="J62" s="13"/>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="39" t="s">
         <v>39</v>
       </c>
@@ -2758,7 +2759,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>44562</v>
       </c>
@@ -2778,7 +2779,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <v>44593</v>
       </c>
@@ -2798,7 +2799,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>44621</v>
       </c>
@@ -2818,7 +2819,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>44652</v>
       </c>
@@ -2838,7 +2839,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <v>44682</v>
       </c>
@@ -2858,7 +2859,7 @@
       <c r="J68" s="13"/>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <v>44713</v>
       </c>
@@ -2878,7 +2879,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <v>44743</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24"/>
       <c r="B71" s="21"/>
       <c r="C71" s="14">
@@ -2920,7 +2921,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <v>44774</v>
       </c>
@@ -2944,7 +2945,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24"/>
       <c r="B73" s="21" t="s">
         <v>92</v>
@@ -2964,7 +2965,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <v>44805</v>
       </c>
@@ -2990,7 +2991,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24"/>
       <c r="B75" s="21" t="s">
         <v>53</v>
@@ -3012,7 +3013,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="24"/>
       <c r="B76" s="21" t="s">
         <v>55</v>
@@ -3032,7 +3033,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24"/>
       <c r="B77" s="21" t="s">
         <v>89</v>
@@ -3052,7 +3053,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="50"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="24"/>
       <c r="B78" s="21" t="s">
         <v>90</v>
@@ -3072,7 +3073,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="50"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="24">
         <v>44835</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="24">
         <v>44866</v>
       </c>
@@ -3124,7 +3125,7 @@
         <v>44881</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="24"/>
       <c r="B81" s="21" t="s">
         <v>56</v>
@@ -3146,7 +3147,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="24"/>
       <c r="B82" s="21" t="s">
         <v>84</v>
@@ -3168,7 +3169,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="24"/>
       <c r="B83" s="21" t="s">
         <v>86</v>
@@ -3188,7 +3189,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="50"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="24">
         <v>44896</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
       <c r="B85" s="21" t="s">
         <v>59</v>
@@ -3234,7 +3235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
       <c r="B86" s="21" t="s">
         <v>82</v>
@@ -3256,7 +3257,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
       <c r="B87" s="21" t="s">
         <v>83</v>
@@ -3276,7 +3277,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="39" t="s">
         <v>61</v>
       </c>
@@ -3294,7 +3295,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41">
         <v>44927</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41"/>
       <c r="B90" s="21"/>
       <c r="C90" s="14">
@@ -3336,7 +3337,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
       <c r="B91" s="21" t="s">
         <v>53</v>
@@ -3358,7 +3359,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="21" t="s">
         <v>56</v>
@@ -3380,7 +3381,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41">
         <v>44958</v>
       </c>
@@ -3404,7 +3405,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
       <c r="B94" s="21" t="s">
         <v>84</v>
@@ -3426,7 +3427,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
       <c r="B95" s="21" t="s">
         <v>104</v>
@@ -3446,7 +3447,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="41"/>
       <c r="B96" s="21" t="s">
         <v>105</v>
@@ -3468,7 +3469,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
       <c r="B97" s="21" t="s">
         <v>107</v>
@@ -3490,7 +3491,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41"/>
       <c r="B98" s="12" t="s">
         <v>97</v>
@@ -3510,7 +3511,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41"/>
       <c r="B99" s="21" t="s">
         <v>91</v>
@@ -3532,7 +3533,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41"/>
       <c r="B100" s="21" t="s">
         <v>109</v>
@@ -3554,7 +3555,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="41"/>
       <c r="B101" s="12" t="s">
         <v>98</v>
@@ -3574,7 +3575,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41"/>
       <c r="B102" s="21" t="s">
         <v>111</v>
@@ -3596,7 +3597,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41"/>
       <c r="B103" s="21" t="s">
         <v>113</v>
@@ -3618,7 +3619,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41"/>
       <c r="B104" s="12" t="s">
         <v>99</v>
@@ -3638,7 +3639,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41"/>
       <c r="B105" s="21" t="s">
         <v>84</v>
@@ -3660,7 +3661,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41">
         <v>44986</v>
       </c>
@@ -3668,14 +3669,14 @@
         <v>53</v>
       </c>
       <c r="C106" s="14">
-        <v>1.25</v>
+        <v>0.625</v>
       </c>
       <c r="D106" s="40"/>
       <c r="E106" s="9"/>
       <c r="F106" s="21"/>
       <c r="G106" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.625</v>
       </c>
       <c r="H106" s="40">
         <v>2</v>
@@ -3686,7 +3687,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="41"/>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -3702,7 +3703,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="41"/>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -3718,7 +3719,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="41"/>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -3734,7 +3735,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="41"/>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -3750,7 +3751,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="41"/>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -3766,7 +3767,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="41"/>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -3782,7 +3783,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="41"/>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -3798,7 +3799,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="41"/>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -3814,7 +3815,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41"/>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -3830,7 +3831,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="41"/>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -3846,7 +3847,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="41"/>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -3862,7 +3863,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="41"/>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -3878,7 +3879,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="41"/>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -3894,7 +3895,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="41"/>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -3910,7 +3911,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="41"/>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -3926,7 +3927,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="41"/>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -3942,7 +3943,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="41"/>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -3958,7 +3959,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41"/>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -3974,7 +3975,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="41"/>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -3990,7 +3991,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="41"/>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -4006,7 +4007,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="41"/>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -4022,7 +4023,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="41"/>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -4038,7 +4039,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="41"/>
       <c r="B129" s="21"/>
       <c r="C129" s="14"/>
@@ -4054,7 +4055,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="21"/>
       <c r="C130" s="14"/>
@@ -4070,7 +4071,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="21"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="41"/>
       <c r="B131" s="21"/>
       <c r="C131" s="14"/>
@@ -4086,7 +4087,7 @@
       <c r="J131" s="12"/>
       <c r="K131" s="21"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="41"/>
       <c r="B132" s="21"/>
       <c r="C132" s="14"/>
@@ -4102,7 +4103,7 @@
       <c r="J132" s="12"/>
       <c r="K132" s="21"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41"/>
       <c r="B133" s="21"/>
       <c r="C133" s="14"/>
@@ -4118,7 +4119,7 @@
       <c r="J133" s="12"/>
       <c r="K133" s="21"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
       <c r="B134" s="21"/>
       <c r="C134" s="14"/>
@@ -4134,7 +4135,7 @@
       <c r="J134" s="12"/>
       <c r="K134" s="21"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="41"/>
       <c r="B135" s="21"/>
       <c r="C135" s="14"/>
@@ -4150,7 +4151,7 @@
       <c r="J135" s="12"/>
       <c r="K135" s="21"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="41"/>
       <c r="B136" s="21"/>
       <c r="C136" s="14"/>
@@ -4166,7 +4167,7 @@
       <c r="J136" s="12"/>
       <c r="K136" s="21"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="41"/>
       <c r="B137" s="21"/>
       <c r="C137" s="14"/>
@@ -4182,7 +4183,7 @@
       <c r="J137" s="12"/>
       <c r="K137" s="21"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="41"/>
       <c r="B138" s="21"/>
       <c r="C138" s="14"/>
@@ -4198,7 +4199,7 @@
       <c r="J138" s="12"/>
       <c r="K138" s="21"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="41"/>
       <c r="B139" s="21"/>
       <c r="C139" s="14"/>
@@ -4214,7 +4215,7 @@
       <c r="J139" s="12"/>
       <c r="K139" s="21"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="41"/>
       <c r="B140" s="21"/>
       <c r="C140" s="14"/>
@@ -4230,7 +4231,7 @@
       <c r="J140" s="12"/>
       <c r="K140" s="21"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="41"/>
       <c r="B141" s="21"/>
       <c r="C141" s="14"/>
@@ -4246,7 +4247,7 @@
       <c r="J141" s="12"/>
       <c r="K141" s="21"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="41"/>
       <c r="B142" s="21"/>
       <c r="C142" s="14"/>
@@ -4262,7 +4263,7 @@
       <c r="J142" s="12"/>
       <c r="K142" s="21"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="41"/>
       <c r="B143" s="21"/>
       <c r="C143" s="14"/>
@@ -4278,7 +4279,7 @@
       <c r="J143" s="12"/>
       <c r="K143" s="21"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="42"/>
       <c r="B144" s="16"/>
       <c r="C144" s="43"/>
@@ -4309,10 +4310,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4335,22 +4336,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
@@ -4365,7 +4366,7 @@
       <c r="F1" s="61"/>
       <c r="G1" s="63"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
@@ -4378,7 +4379,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="58"/>
     </row>
-    <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>16</v>
       </c>
@@ -4393,7 +4394,7 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="1"/>
       <c r="C4" s="31"/>
@@ -4402,7 +4403,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="54"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="8"/>
       <c r="C5" s="32"/>
@@ -4411,7 +4412,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>93</v>
       </c>
@@ -4422,7 +4423,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="52">
         <v>44667</v>
       </c>
@@ -4433,7 +4434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="52">
         <v>44676</v>
       </c>
@@ -4444,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
         <v>95</v>
@@ -4453,7 +4454,7 @@
         <v>3.754</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="52">
         <v>44690</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="52">
         <v>44691</v>
       </c>
@@ -4475,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="53">
         <v>44692</v>
       </c>
@@ -4486,7 +4487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="53">
         <v>44694</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="53">
         <v>44697</v>
       </c>
@@ -4508,7 +4509,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="53">
         <v>44704</v>
       </c>
@@ -4519,7 +4520,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="53">
         <v>44706</v>
       </c>
@@ -4530,7 +4531,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="53">
         <v>44708</v>
       </c>
@@ -4541,7 +4542,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="53">
         <v>44709</v>
       </c>
@@ -4552,7 +4553,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="53">
         <v>44712</v>
       </c>
@@ -4563,7 +4564,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="53"/>
       <c r="B20" s="12" t="s">
         <v>97</v>
@@ -4572,7 +4573,7 @@
         <v>2.0209999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="53">
         <v>44722</v>
       </c>
@@ -4583,7 +4584,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="53">
         <v>44736</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="53">
         <v>44739</v>
       </c>
@@ -4605,7 +4606,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="53">
         <v>44740</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="47"/>
       <c r="B25" s="12" t="s">
         <v>98</v>
@@ -4625,7 +4626,7 @@
         <v>2.883</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="53">
         <v>44754</v>
       </c>
@@ -4636,7 +4637,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="53">
         <v>44757</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="53">
         <v>44743</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="53">
         <v>44745</v>
       </c>
@@ -4669,7 +4670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="53">
         <v>44746</v>
       </c>
@@ -4680,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="53">
         <v>44747</v>
       </c>
@@ -4691,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="53">
         <v>44748</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="53">
         <v>44761</v>
       </c>
@@ -4713,7 +4714,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="53">
         <v>44764</v>
       </c>
@@ -4724,7 +4725,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="53">
         <v>44767</v>
       </c>
@@ -4735,7 +4736,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="53">
         <v>44771</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="47"/>
       <c r="B37" s="12" t="s">
         <v>99</v>
@@ -4755,7 +4756,7 @@
         <v>1.173</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="53">
         <v>44797</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="53">
         <v>44802</v>
       </c>
@@ -4777,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>100</v>
       </c>
@@ -4786,19 +4787,19 @@
         <v>30.830999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C41" s="37"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C42" s="37"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C43" s="37"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C44" s="37"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C45" s="37"/>
     </row>
   </sheetData>
@@ -4811,10 +4812,10 @@
     <mergeCell ref="F2:G2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4824,28 +4825,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
@@ -4858,7 +4859,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>7.7039999999999997</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v>0.125</v>
@@ -4930,10 +4931,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="36" t="s">
         <v>28</v>
       </c>
@@ -4953,7 +4954,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4979,7 +4980,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5005,7 +5006,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5031,7 +5032,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5057,7 +5058,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5109,7 +5110,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5161,7 +5162,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5181,7 +5182,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5201,7 +5202,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5221,7 +5222,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5242,7 +5243,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5263,7 +5264,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5284,7 +5285,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5305,7 +5306,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5326,7 +5327,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5347,7 +5348,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5368,7 +5369,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5389,7 +5390,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5410,7 +5411,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5431,7 +5432,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5452,7 +5453,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5473,7 +5474,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5494,7 +5495,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5515,7 +5516,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5557,7 +5558,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5599,7 +5600,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5620,7 +5621,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5641,7 +5642,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5650,7 +5651,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5659,7 +5660,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5668,7 +5669,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5677,7 +5678,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5686,7 +5687,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5695,7 +5696,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5704,7 +5705,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5713,7 +5714,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5722,7 +5723,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5731,7 +5732,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5740,7 +5741,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5749,7 +5750,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5758,7 +5759,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5767,7 +5768,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5776,7 +5777,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5785,7 +5786,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5794,7 +5795,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5803,7 +5804,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5812,7 +5813,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5821,7 +5822,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5830,7 +5831,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5839,7 +5840,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5848,7 +5849,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5857,7 +5858,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5866,7 +5867,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5875,7 +5876,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5884,7 +5885,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5893,7 +5894,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5902,7 +5903,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
